--- a/reconstruction-tools-assessment/supplementary material/S20_table.xlsx
+++ b/reconstruction-tools-assessment/supplementary material/S20_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\supplementary material\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A49173A-1100-4202-BABF-157E5E147836}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9402"/>
+    <workbookView xWindow="4476" yWindow="1320" windowWidth="17280" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S20 Table" sheetId="1" r:id="rId1"/>
@@ -120,7 +121,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,7 +212,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,10 +526,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C4:C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -559,7 +565,7 @@
         <v>188</v>
       </c>
       <c r="C4" s="4">
-        <v>23.470661672908864</v>
+        <v>23.095823095823096</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -567,10 +573,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C5" s="4">
-        <v>18.851435705368289</v>
+        <v>19.164619164619165</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -581,7 +587,7 @@
         <v>88</v>
       </c>
       <c r="C6" s="4">
-        <v>10.986267166042447</v>
+        <v>10.810810810810811</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -589,10 +595,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" s="4">
-        <v>7.3657927590511862</v>
+        <v>7.3710073710073711</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -600,10 +606,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4">
-        <v>7.1161048689138573</v>
+        <v>7.2481572481572485</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -614,7 +620,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="4">
-        <v>6.6167290886392012</v>
+        <v>6.5110565110565108</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -625,40 +631,40 @@
         <v>37</v>
       </c>
       <c r="C10" s="4">
-        <v>4.619225967540574</v>
+        <v>4.5454545454545459</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4">
-        <v>3.4956304619225969</v>
+        <v>3.5626535626535625</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4">
-        <v>3.2459425717852683</v>
+        <v>3.3169533169533167</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>26</v>
       </c>
       <c r="C13" s="4">
-        <v>3.2459425717852683</v>
+        <v>3.1941031941031941</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -669,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="4">
-        <v>2.4968789013732833</v>
+        <v>2.4570024570024569</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -677,10 +683,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4">
-        <v>1.9975031210986267</v>
+        <v>2.3341523341523343</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -691,7 +697,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="4">
-        <v>1.6229712858926342</v>
+        <v>1.597051597051597</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -702,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="4">
-        <v>1.6229712858926342</v>
+        <v>1.597051597051597</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -713,7 +719,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="4">
-        <v>0.87390761548064921</v>
+        <v>0.85995085995085996</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -724,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="4">
-        <v>0.62421972534332082</v>
+        <v>0.61425061425061422</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -735,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="4">
-        <v>0.62421972534332082</v>
+        <v>0.61425061425061422</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -746,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="4">
-        <v>0.49937578027465668</v>
+        <v>0.49140049140049141</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -757,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="4">
-        <v>0.24968789013732834</v>
+        <v>0.24570024570024571</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -768,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="4">
-        <v>0.12484394506866417</v>
+        <v>0.12285012285012285</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -779,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="4">
-        <v>0.12484394506866417</v>
+        <v>0.12285012285012285</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -790,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="4">
-        <v>0.12484394506866417</v>
+        <v>0.12285012285012285</v>
       </c>
     </row>
   </sheetData>
